--- a/data/input/employee_absence_data_39.xlsx
+++ b/data/input/employee_absence_data_39.xlsx
@@ -464,292 +464,292 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>17529</v>
+        <v>46563</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Henry Gabriel Porto</t>
+          <t>Thales Lima</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45097</v>
+        <v>45085</v>
       </c>
       <c r="G2" t="n">
-        <v>7482.32</v>
+        <v>2258.68</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>64060</v>
+        <v>27051</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Juliana Casa Grande</t>
+          <t>Ana Clara Silveira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45101</v>
+        <v>45098</v>
       </c>
       <c r="G3" t="n">
-        <v>7987.67</v>
+        <v>8385.379999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8221</v>
+        <v>36088</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Emanuelly Vasconcelos</t>
+          <t>Leonardo Fonseca</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45082</v>
+        <v>45098</v>
       </c>
       <c r="G4" t="n">
-        <v>6723.12</v>
+        <v>9872.65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3759</v>
+        <v>26627</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Srta. Isis Rocha</t>
+          <t>Anthony Lopes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45089</v>
+        <v>45101</v>
       </c>
       <c r="G5" t="n">
-        <v>6074.76</v>
+        <v>9464.059999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>34671</v>
+        <v>45604</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ravi Almeida</t>
+          <t>Esther Macedo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45090</v>
+        <v>45101</v>
       </c>
       <c r="G6" t="n">
-        <v>8554.76</v>
+        <v>6244.86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>26718</v>
+        <v>86661</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sr. Caleb Camargo</t>
+          <t>Rafael Sousa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45099</v>
+        <v>45088</v>
       </c>
       <c r="G7" t="n">
-        <v>11819.83</v>
+        <v>4168.05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2340</v>
+        <v>53867</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Davi Lucca Leão</t>
+          <t>Ana Beatriz Cavalcante</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45084</v>
+        <v>45092</v>
       </c>
       <c r="G8" t="n">
-        <v>2959.05</v>
+        <v>2760.88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>79132</v>
+        <v>72573</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Aylla Martins</t>
+          <t>Cauê Siqueira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45094</v>
+        <v>45088</v>
       </c>
       <c r="G9" t="n">
-        <v>11662.04</v>
+        <v>7907.38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>47749</v>
+        <v>77588</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ana Sophia Cardoso</t>
+          <t>Benicio Lima</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45100</v>
+        <v>45086</v>
       </c>
       <c r="G10" t="n">
-        <v>8743.370000000001</v>
+        <v>5915.16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>14562</v>
+        <v>37102</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Srta. Maitê Azevedo</t>
+          <t>Bernardo das Neves</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>3</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45083</v>
+        <v>45099</v>
       </c>
       <c r="G11" t="n">
-        <v>6755.26</v>
+        <v>2496.34</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/employee_absence_data_39.xlsx
+++ b/data/input/employee_absence_data_39.xlsx
@@ -464,21 +464,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>46563</v>
+        <v>12497</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Thales Lima</t>
+          <t>Kamilly da Paz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -488,79 +488,79 @@
         <v>45085</v>
       </c>
       <c r="G2" t="n">
-        <v>2258.68</v>
+        <v>2961.18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>27051</v>
+        <v>2424</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ana Clara Silveira</t>
+          <t>João Miguel da Cruz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45098</v>
+        <v>45090</v>
       </c>
       <c r="G3" t="n">
-        <v>8385.379999999999</v>
+        <v>4964.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>36088</v>
+        <v>50837</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Leonardo Fonseca</t>
+          <t>Sabrina da Conceição</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45098</v>
+        <v>45093</v>
       </c>
       <c r="G4" t="n">
-        <v>9872.65</v>
+        <v>5782.89</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>26627</v>
+        <v>69987</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Anthony Lopes</t>
+          <t>Yuri Caldeira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -569,187 +569,187 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45101</v>
+        <v>45089</v>
       </c>
       <c r="G5" t="n">
-        <v>9464.059999999999</v>
+        <v>4441.92</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>45604</v>
+        <v>70122</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Esther Macedo</t>
+          <t>Gustavo Henrique Guerra</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>45101</v>
       </c>
       <c r="G6" t="n">
-        <v>6244.86</v>
+        <v>6003.14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>86661</v>
+        <v>70687</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rafael Sousa</t>
+          <t>Hadassa Aparecida</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45088</v>
+        <v>45082</v>
       </c>
       <c r="G7" t="n">
-        <v>4168.05</v>
+        <v>9820.889999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>53867</v>
+        <v>65893</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ana Beatriz Cavalcante</t>
+          <t>Fernando Pacheco</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45092</v>
+        <v>45085</v>
       </c>
       <c r="G8" t="n">
-        <v>2760.88</v>
+        <v>5551.69</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>72573</v>
+        <v>68289</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cauê Siqueira</t>
+          <t>Dra. Manuella Lima</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45088</v>
+        <v>45098</v>
       </c>
       <c r="G9" t="n">
-        <v>7907.38</v>
+        <v>8131.13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>77588</v>
+        <v>6605</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Benicio Lima</t>
+          <t>Luísa Silveira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>2</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45086</v>
+        <v>45100</v>
       </c>
       <c r="G10" t="n">
-        <v>5915.16</v>
+        <v>6411.61</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>37102</v>
+        <v>89521</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Bernardo das Neves</t>
+          <t>Asafe Leão</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45099</v>
+        <v>45088</v>
       </c>
       <c r="G11" t="n">
-        <v>2496.34</v>
+        <v>8645.450000000001</v>
       </c>
     </row>
   </sheetData>
